--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D022997-A882-48C2-B4A8-0AD054C1809F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31AA7E1-5840-4358-9136-8B2F8143D6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -944,9 +944,6 @@
     <t>PrereqAllowValues</t>
   </si>
   <si>
-    <t>P2,P3,P4</t>
-  </si>
-  <si>
     <t>2P3,2P4</t>
   </si>
   <si>
@@ -954,6 +951,9 @@
   </si>
   <si>
     <t>)</t>
+  </si>
+  <si>
+    <t>P2,P3,P4,2P3,2P4</t>
   </si>
 </sst>
 </file>
@@ -2706,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,10 +2967,10 @@
         <v>162</v>
       </c>
       <c r="K10" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10" t="s">
         <v>304</v>
-      </c>
-      <c r="L10" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3015,6 +3015,9 @@
       <c r="K12" t="s">
         <v>297</v>
       </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
       <c r="N12" t="s">
         <v>89</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>90</v>
       </c>
       <c r="O14" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3091,7 +3094,7 @@
         <v>90</v>
       </c>
       <c r="O15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3270,7 +3273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31AA7E1-5840-4358-9136-8B2F8143D6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B60083-DA0C-4DBB-89F4-C6EAA654E849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2707,7 +2707,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,7 +2958,7 @@
         <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
